--- a/config_4.27/act_027_jqshl_config.xlsx
+++ b/config_4.27/act_027_jqshl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>index</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>cur_path|皮肤配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_027_style_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,12 +393,20 @@
     <t>ty_icon_flq5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>platform_limit_cjj_show</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_MiniGame</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +442,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -850,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -871,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -892,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -913,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -934,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -955,13 +965,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -976,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -997,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -1018,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -1039,13 +1049,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -1060,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -1081,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -1102,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -1123,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -1144,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -1165,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -1186,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -1207,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -1228,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -1249,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -1270,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -1291,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -1312,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="8"/>
     </row>
@@ -1333,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" s="8"/>
     </row>
@@ -1354,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="8"/>
     </row>
@@ -1375,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -1396,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -1417,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I29" s="8"/>
     </row>
@@ -1438,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="8"/>
     </row>
@@ -1459,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="8"/>
     </row>
@@ -1480,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="8"/>
     </row>
@@ -1501,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" s="8"/>
     </row>
@@ -1522,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1559,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -1568,10 +1578,10 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1579,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>98</v>
@@ -1593,17 +1603,39 @@
       <c r="G2" s="1">
         <v>1618876800</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1">
+        <v>97</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1618876800</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1614,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1636,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1644,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1652,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1660,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.27/act_027_jqshl_config.xlsx
+++ b/config_4.27/act_027_jqshl_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>index</t>
   </si>
@@ -94,19 +94,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>platform_limit_notcjj_show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累计充值6元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_crary_rebate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,20 +385,12 @@
     <t>ty_icon_flq5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>platform_limit_cjj_show</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_MiniGame</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,12 +426,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -860,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -881,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -902,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -923,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -944,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -965,13 +943,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -986,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -1007,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -1028,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -1049,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -1070,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -1091,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -1112,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -1133,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -1154,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -1175,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -1196,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -1217,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -1238,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -1259,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -1280,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -1301,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -1322,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I24" s="8"/>
     </row>
@@ -1343,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I25" s="8"/>
     </row>
@@ -1364,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I26" s="8"/>
     </row>
@@ -1385,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -1406,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -1427,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I29" s="8"/>
     </row>
@@ -1448,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I30" s="8"/>
     </row>
@@ -1469,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I31" s="8"/>
     </row>
@@ -1490,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I32" s="8"/>
     </row>
@@ -1511,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I33" s="8"/>
     </row>
@@ -1530,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1545,7 +1523,7 @@
     <col min="6" max="7" width="22.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.375" customWidth="1"/>
     <col min="9" max="9" width="19.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1589,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>98</v>
@@ -1604,36 +1582,10 @@
         <v>1618876800</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1">
-        <v>98</v>
-      </c>
-      <c r="E3" s="1">
-        <v>97</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1618876800</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1676,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1684,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1692,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
